--- a/doc_new/845_Elasticsearch_ES/catalog.xlsx
+++ b/doc_new/845_Elasticsearch_ES/catalog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intldoc\intlcloud-documents\doc_new\845_Elasticsearch_ES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>编号</t>
   </si>
@@ -481,19 +481,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,6 +492,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,14 +814,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="13" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13" style="11" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
@@ -850,7 +850,7 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1019,7 +1019,9 @@
       <c r="H10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="7"/>
@@ -1249,7 +1251,9 @@
       <c r="H20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="7"/>
@@ -1271,7 +1275,9 @@
       <c r="H21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="7"/>
@@ -1280,7 +1286,7 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1294,7 +1300,9 @@
       <c r="G22" s="9">
         <v>16996</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="I22" s="5" t="s">
         <v>55</v>
       </c>
@@ -1306,7 +1314,7 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
@@ -1316,7 +1324,9 @@
       <c r="G23" s="9">
         <v>16992</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="I23" s="5" t="s">
         <v>55</v>
       </c>
@@ -1328,7 +1338,7 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
@@ -1338,7 +1348,9 @@
       <c r="G24" s="9">
         <v>16997</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1348,7 +1360,7 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
@@ -1358,7 +1370,9 @@
       <c r="G25" s="9">
         <v>32096</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1368,7 +1382,7 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
@@ -1378,7 +1392,9 @@
       <c r="G26" s="9">
         <v>32097</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1388,7 +1404,7 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
@@ -1410,7 +1426,7 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
@@ -1432,7 +1448,7 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
@@ -1454,7 +1470,7 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -1476,7 +1492,7 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="3" t="s">
         <v>43</v>
       </c>
@@ -1500,7 +1516,7 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
@@ -1642,12 +1658,12 @@
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="18"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="3"/>
       <c r="G38" s="9">
         <v>34706</v>
@@ -1666,12 +1682,12 @@
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="18"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="3"/>
       <c r="G39" s="9">
         <v>16482</v>
